--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\projects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F2B27A-E323-4A21-BA9E-C85ED8AA406E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1BF466-9937-43F0-BD28-965D14D0FAE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="professional" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="128">
   <si>
     <t>Company</t>
   </si>
@@ -716,8 +716,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -790,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="5">
-        <v>35582</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="5">
-        <v>37043</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="5">
-        <v>35947</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5">
-        <v>44708</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="5">
-        <v>42522</v>
+        <v>44752</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="5">
-        <v>44709</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="5">
-        <v>44700</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="5">
-        <v>44703</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="5">
-        <v>44704</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1034,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="5">
-        <v>38869</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="5">
-        <v>42887</v>
+        <v>44758</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="5">
-        <v>44710</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="5">
-        <v>40330</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="5">
-        <v>40695</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="5">
-        <v>44702</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="5">
-        <v>44701</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="5">
-        <v>44710</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="5">
-        <v>35217</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1264,8 +1264,11 @@
       <c r="H20" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J20" s="5">
-        <v>34851</v>
+        <v>44766</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1289,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="5">
-        <v>42156</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1316,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="5">
-        <v>43617</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1339,8 +1342,11 @@
         <v>69</v>
       </c>
       <c r="H23" s="1"/>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J23" s="5">
-        <v>39965</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1364,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="J24" s="5">
-        <v>41426</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,7 +1397,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="5">
-        <v>43983</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1418,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="5">
-        <v>41061</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1442,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="J27" s="5">
-        <v>44705</v>
+        <v>44773</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1466,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="J28" s="5">
-        <v>43252</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1493,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="J29" s="5">
-        <v>44348</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1509,8 +1515,11 @@
       <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I30" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J30" s="5">
-        <v>39600</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1528,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="J31" s="5">
-        <v>41791</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1544,8 +1553,11 @@
       <c r="F32" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J32" s="5">
-        <v>39234</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1571,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="J33" s="5">
-        <v>36312</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1597,7 +1609,7 @@
         <v>16</v>
       </c>
       <c r="J34" s="5">
-        <v>36678</v>
+        <v>44780</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1620,7 +1632,7 @@
         <v>41</v>
       </c>
       <c r="J35" s="5">
-        <v>38139</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1646,7 +1658,7 @@
         <v>41</v>
       </c>
       <c r="J36" s="5">
-        <v>37408</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1673,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="J37" s="5">
-        <v>44713</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1700,7 +1712,7 @@
         <v>41</v>
       </c>
       <c r="J38" s="5">
-        <v>44706</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1727,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="J39" s="5">
-        <v>44712</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1754,7 +1766,7 @@
         <v>41</v>
       </c>
       <c r="J40" s="5">
-        <v>44711</v>
+        <v>44786</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1781,7 +1793,7 @@
         <v>41</v>
       </c>
       <c r="J41" s="5">
-        <v>44707</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1808,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="J42" s="5">
-        <v>38504</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -1831,7 +1843,7 @@
         <v>41</v>
       </c>
       <c r="J43" s="5">
-        <v>37773</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
